--- a/excels/Aba_Reports.xlsx
+++ b/excels/Aba_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,12 @@
     <sheet name="Employment_Location" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="B1:I16"/>
+  <oleSize ref="B1:J17"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="61">
   <si>
     <t>TCID</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>T1_TH1_TCN</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -735,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -834,7 +837,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
@@ -872,7 +875,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -910,7 +913,7 @@
         <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
@@ -948,7 +951,7 @@
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>
@@ -988,7 +991,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1086,7 +1089,7 @@
         <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
@@ -1124,7 +1127,7 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -1162,7 +1165,7 @@
         <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
@@ -1200,7 +1203,7 @@
         <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>
@@ -1240,7 +1243,7 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1342,7 +1345,7 @@
         <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
@@ -1380,7 +1383,7 @@
         <v>50</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -1418,7 +1421,7 @@
         <v>51</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
@@ -1456,7 +1459,7 @@
         <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>
@@ -1495,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1598,7 +1601,7 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
@@ -1636,7 +1639,7 @@
         <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -1674,7 +1677,7 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
@@ -1712,7 +1715,7 @@
         <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>

--- a/excels/Aba_Reports.xlsx
+++ b/excels/Aba_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Employment_Location" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="B1:J17"/>
+  <oleSize ref="B1:I16"/>
 </workbook>
 </file>
 
@@ -643,7 +643,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -738,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1498,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/excels/Aba_Reports.xlsx
+++ b/excels/Aba_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15315" windowHeight="5655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Employment_Location" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="B1:I16"/>
 </workbook>
 </file>
 
@@ -642,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -738,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/excels/Aba_Reports.xlsx
+++ b/excels/Aba_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14790" windowHeight="5655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Employment_Location" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="B1:I16"/>
 </workbook>
 </file>
 
@@ -641,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -737,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -836,7 +837,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>

--- a/excels/Aba_Reports.xlsx
+++ b/excels/Aba_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="14790" windowHeight="5655" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,6 @@
     <sheet name="Employment_Location" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="B1:I16"/>
 </workbook>
 </file>
 
@@ -642,7 +641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -738,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,7 +836,7 @@
         <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>

--- a/excels/Aba_Reports.xlsx
+++ b/excels/Aba_Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="15030" windowHeight="5655"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="14790" windowHeight="5655" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Test_Cases" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Employment_Location" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <oleSize ref="A1:H17"/>
 </workbook>
 </file>
 
@@ -641,7 +642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1497,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1600,7 +1601,7 @@
         <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>8</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
